--- a/Frontend/public/templates/plantilla.xlsx
+++ b/Frontend/public/templates/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8vo-Nivel\Sistema-CDP\Frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAABCAB-DF9B-4114-902C-B4746ECCC1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E353AA4-8064-4885-8692-09A3226C1448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,40 +20,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Número de cédula </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apellidos y nombres completos </t>
-  </si>
-  <si>
-    <t>Activo/Inactivo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Inactivo</t>
   </si>
   <si>
     <t>Activo</t>
   </si>
   <si>
     <t>Curso</t>
+  </si>
+  <si>
+    <t>Parvularia</t>
+  </si>
+  <si>
+    <t>Reposteria</t>
+  </si>
+  <si>
+    <t>johandesvos@gmail.com</t>
+  </si>
+  <si>
+    <t>`0123456789</t>
+  </si>
+  <si>
+    <t>jdgaleas1@espe.edu.ec</t>
+  </si>
+  <si>
+    <t>Estudiante Activo/Inactivo</t>
+  </si>
+  <si>
+    <t>instructorDefaul@gmail.com</t>
+  </si>
+  <si>
+    <t>Instructor a cargo del curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo estudiante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de cédula estudiante </t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadena </t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambrano </t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -72,13 +105,50 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,24 +177,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -152,9 +250,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -169,13 +267,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:E150">
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos y nombres completos "/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Número de cédula "/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo "/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:G150" headerRowDxfId="0">
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{576D63CD-37AA-4089-BBBF-441AECBF84D4}" name="Nombres"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Número de cédula estudiante "/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Correo estudiante "/>
     <tableColumn id="5" xr3:uid="{35ACD7BE-F3C4-45BD-B20B-DF0ADED928D5}" name="Curso"/>
-    <tableColumn id="1" xr3:uid="{6D5F0E06-D9E2-44F3-ADB8-E0749C3305C0}" name="Activo/Inactivo"/>
+    <tableColumn id="1" xr3:uid="{6D5F0E06-D9E2-44F3-ADB8-E0749C3305C0}" name="Estudiante Activo/Inactivo"/>
+    <tableColumn id="6" xr3:uid="{673D1A56-887D-46EC-B3EC-FE9135248799}" name="Instructor a cargo del curso"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -382,74 +482,154 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="12" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" customWidth="1"/>
+    <col min="8" max="12" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="26" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="26" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error al ingresar datos" error="Solo permite el ingreso de Activo e Inactivo_x000a_" prompt="Ingrese si el estudiante esta activado o inactivo" sqref="E2:E150" xr:uid="{F8AFFDC2-6734-4A68-9A7C-46AF84B0B55A}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error al ingresar datos" error="Solo permite el ingreso de Activo e Inactivo_x000a_" prompt="Ingrese si el estudiante esta activado o inactivo" sqref="F2:F150" xr:uid="{F8AFFDC2-6734-4A68-9A7C-46AF84B0B55A}">
       <formula1>"Activo,Inactivo"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{32C8F00D-DD98-4D23-8E9D-6E869C80ABAA}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9040959D-F233-4EF0-8AFF-ABD46F12C274}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{100061E1-5672-487C-B681-391E6C378163}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{332BBBAF-B7BC-4E2E-8918-BC518A16C910}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>